--- a/data/测试用例完整版111.xlsx
+++ b/data/测试用例完整版111.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chu/Desktop/jkzdh_test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACE88B6-C495-E24D-804C-E1459D401FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71500A8-507C-7648-981F-8F1C1FEF1E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>编号</t>
   </si>
@@ -191,6 +191,10 @@
   </si>
   <si>
     <t>美国</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -574,9 +578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -748,16 +752,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="28" customHeight="1">
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+    <row r="4" spans="1:18" ht="30" customHeight="1">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1">
       <c r="F5" s="3"/>
